--- a/data/income_statement/2digits/size/58_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/58_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>58-Publishing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>58-Publishing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2669021.01365</v>
+        <v>2592278.75414</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>2938488.19533</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3044215.83401</v>
+        <v>3027563.43196</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3231690.09303</v>
+        <v>3155783.55869</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2978654.82676</v>
+        <v>2834560.83674</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2822451.63062</v>
+        <v>2671316.9854</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2945873.99198</v>
+        <v>2751149.88063</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3164487.22087</v>
+        <v>2893886.26032</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4185508.79189</v>
+        <v>3785232.69295</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4407463.099020001</v>
+        <v>4393940.29534</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4268808.60827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4019233.19115</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5562122.093</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2638685.5118</v>
+        <v>2561966.0523</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>2898464.03568</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2997943.26156</v>
+        <v>2982008.92745</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3162772.92009</v>
+        <v>3088813.23555</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2939550.52291</v>
+        <v>2797888.62149</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2741330.32036</v>
+        <v>2592691.94047</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2826700.46767</v>
+        <v>2644739.61776</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2835269.47804</v>
+        <v>2570273.03261</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3223488.65984</v>
+        <v>2830803.47102</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2267813.67087</v>
+        <v>2254300.26544</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1753167.98949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1507852.60284</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1346268.123</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3537.1503</v>
+        <v>3536.59418</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>13003.89339</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12443.31681</v>
+        <v>12140.85165</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>33767.40137000001</v>
+        <v>33730.13038</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>9348.028129999999</v>
@@ -1049,178 +965,203 @@
         <v>75384.29578</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>291050.28079</v>
+        <v>290702.98386</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>925445.33021</v>
+        <v>925211.63474</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>2094373.89522</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2452967.53176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2452903.4785</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4102765.124</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>26798.35155</v>
+        <v>26776.10766</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>27020.26626</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>33829.25564</v>
+        <v>33413.65286</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>35149.77157</v>
+        <v>33240.19276</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>29756.27572</v>
+        <v>27324.18712</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>39411.53197</v>
+        <v>36915.26664</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>43789.22853</v>
+        <v>31025.96709</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>38167.46204000001</v>
+        <v>32910.24385</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>36574.80183999999</v>
+        <v>29217.58719</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>45275.53293</v>
+        <v>45266.13468</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>62673.08702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>58477.10981</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>113088.846</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>474611.11116</v>
+        <v>465724.12538</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>468132.15463</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>410502.69591</v>
+        <v>410440.12444</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>365341.47423</v>
+        <v>356035.4514</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>398610.56415</v>
+        <v>385544.48258</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>422036.48185</v>
+        <v>381791.68303</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>479892.85046</v>
+        <v>426810.36655</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>461442.86929</v>
+        <v>414764.21606</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>558021.3149499999</v>
+        <v>478633.78714</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>407961.86575</v>
+        <v>407878.05621</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>262357.61086</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>247702.21638</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>191847.92</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>248059.61913</v>
+        <v>239201.27854</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>267185.17381</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>251198.45056</v>
+        <v>251136.80381</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>278343.91229</v>
+        <v>269635.71582</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>312070.66236</v>
+        <v>299363.47457</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>360230.95388</v>
+        <v>322431.0994299999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>397374.93542</v>
+        <v>347315.4555800001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>394416.32766</v>
+        <v>350351.81138</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>468821.17124</v>
+        <v>412490.82332</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>342542.92894</v>
+        <v>342459.1194</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>228821.89118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>217297.85468</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>147288.832</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>224062.99398</v>
+        <v>224034.34879</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>197732.04673</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>151619.91859</v>
+        <v>151618.99387</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>77419.34911</v>
+        <v>76821.52275</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>70033.65101999999</v>
+        <v>69674.75723999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>54509.43933</v>
+        <v>52064.49496</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>76874.72056999999</v>
+        <v>73851.71649999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>31602.6921</v>
+        <v>29492.39739</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>59420.57923</v>
+        <v>36464.99997999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>33833.74385</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>13872.20116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10740.84318</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9171.343000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2488.49805</v>
@@ -1244,10 +1185,10 @@
         <v>5643.194469999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>35423.84953</v>
+        <v>34920.00729</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>29779.56448</v>
+        <v>29677.96384</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>31585.19296</v>
@@ -1255,209 +1196,239 @@
       <c r="M12" s="48" t="n">
         <v>19663.51852</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>35387.745</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2194409.90249</v>
+        <v>2126554.62876</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>2470356.0407</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2633713.1381</v>
+        <v>2617123.30752</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2866348.6188</v>
+        <v>2799748.10729</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2580044.26261</v>
+        <v>2449016.35416</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2400415.14877</v>
+        <v>2289525.30237</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2465981.14152</v>
+        <v>2324339.51408</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2703044.35158</v>
+        <v>2479122.04426</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3627487.47694</v>
+        <v>3306598.90581</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3999501.23327</v>
+        <v>3986062.23913</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4006450.99741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3771530.974770001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5370274.173</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1595319.94196</v>
+        <v>1551389.94835</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>1627615.26744</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1864417.52601</v>
+        <v>1849684.91782</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2107165.75229</v>
+        <v>2062993.93731</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1793438.75274</v>
+        <v>1708501.89566</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1660082.00726</v>
+        <v>1567306.98627</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1576096.6294</v>
+        <v>1488970.03971</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1568625.44855</v>
+        <v>1395335.39577</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1772806.38897</v>
+        <v>1534900.87234</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1476879.39652</v>
+        <v>1466037.74641</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1195181.79061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1112190.96688</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1997711.193</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>980581.83945</v>
+        <v>947950.4281</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>975825.36662</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1096749.13522</v>
+        <v>1096466.35024</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1302823.94254</v>
+        <v>1270907.74916</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1305478.64701</v>
+        <v>1267540.88882</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1233625.52002</v>
+        <v>1177517.21984</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>962387.37686</v>
+        <v>899616.48497</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1057296.55813</v>
+        <v>982028.21715</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1136784.16786</v>
+        <v>1027745.82933</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>928870.1394899999</v>
+        <v>925021.5469799999</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>753399.5635299999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>675651.823</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>178879.55702</v>
+        <v>172422.94635</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>168217.02291</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>176697.16207</v>
+        <v>174791.09673</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>172962.22477</v>
+        <v>171559.78375</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>201876.27254</v>
+        <v>183623.52175</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>181724.25103</v>
+        <v>167284.44106</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>241604.51566</v>
+        <v>228672.45251</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>212954.14991</v>
+        <v>144325.03449</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>292667.78936</v>
+        <v>181920.81725</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>211542.62372</v>
+        <v>208006.48716</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>119062.85147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>39871.50304</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21034.965</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>419564.48817</v>
+        <v>415120.16543</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>464846.3285999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>570165.67935</v>
+        <v>557621.92148</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>603933.21158</v>
+        <v>598403.74662</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>258513.30971</v>
+        <v>235699.34771</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>212819.23172</v>
+        <v>196907.53364</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>329342.98217</v>
+        <v>322653.55633</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>277427.8685</v>
+        <v>249020.9213</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>310969.42421</v>
+        <v>294105.73927</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>304153.39059</v>
+        <v>300696.46955</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>293938.73975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>290139.26445</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1278754.323</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>16294.05732</v>
+        <v>15896.40847</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>18726.54931</v>
@@ -1466,22 +1437,22 @@
         <v>20805.54937</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>27446.3734</v>
+        <v>22122.65778</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>27570.52348</v>
+        <v>21638.13738</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>31913.00449</v>
+        <v>25597.79173</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>42761.75471</v>
+        <v>38027.5459</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20946.87201</v>
+        <v>19961.22283</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>32385.00754</v>
+        <v>31128.48649</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>32313.24272</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>28780.63586</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>22270.082</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>599089.9605299999</v>
+        <v>575164.6804099999</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>842740.77326</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>769295.6120900001</v>
+        <v>767438.3897000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>759182.86651</v>
+        <v>736754.16998</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>786605.50987</v>
+        <v>740514.4584999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>740333.14151</v>
+        <v>722218.3160999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>889884.51212</v>
+        <v>835369.47437</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1134418.90303</v>
+        <v>1083786.64849</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1854681.08797</v>
+        <v>1771698.03347</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2522621.83675</v>
+        <v>2520024.49272</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2811269.2068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2659340.00789</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3372562.98</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>577564.68247</v>
+        <v>553695.0651900001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>680300.0436600001</v>
+        <v>680209.9752400001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>705507.86448</v>
+        <v>698941.34806</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>744913.80039</v>
+        <v>731755.66565</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>715740.8819899999</v>
+        <v>675686.1566399999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>709549.59036</v>
+        <v>675466.39171</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>835423.61152</v>
+        <v>785508.3997</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1066978.53028</v>
+        <v>1011574.5732</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1290522.12264</v>
+        <v>1210862.5192</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2413117.56793</v>
+        <v>2408968.7825</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2302686.07967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2263203.62155</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3244209.199</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2007.04782</v>
@@ -1586,10 +1572,10 @@
         <v>570.0102800000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>173.53843</v>
+        <v>84.59842999999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>216.85002</v>
+        <v>132.05594</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>463.99282</v>
@@ -1606,188 +1592,213 @@
       <c r="M21" s="48" t="n">
         <v>1389.12475</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1015.73</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>391177.04336</v>
+        <v>378472.69219</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>451100.08463</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>468304.04063</v>
+        <v>467388.43732</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>511456.1524</v>
+        <v>505683.6601699999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>486690.49524</v>
+        <v>469684.88534</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>465523.6370399999</v>
+        <v>450371.09356</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>538391.39941</v>
+        <v>515079.21494</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>794186.00261</v>
+        <v>762606.27886</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>987654.2787</v>
+        <v>953319.5064</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>2163958.10022</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2062347.58846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2034995.35693</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2197322.409</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>184380.59129</v>
+        <v>173215.32518</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>227192.91123</v>
+        <v>227102.84281</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>235711.41443</v>
+        <v>230060.50132</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>232887.63771</v>
+        <v>225501.9952</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>228876.84832</v>
+        <v>205916.67287</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>243809.1033</v>
+        <v>224963.24221</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>296568.21929</v>
+        <v>269965.19194</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>272419.13327</v>
+        <v>248594.89994</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>302494.44952</v>
+        <v>257169.61838</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>248519.57301</v>
+        <v>244370.78758</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>238949.36646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>226819.13987</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1045871.06</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>21525.27806</v>
+        <v>21469.61522</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>162440.7296</v>
+        <v>162530.79802</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>63787.74761</v>
+        <v>68497.04164</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>14269.06612</v>
+        <v>4998.50433</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>70864.62788000001</v>
+        <v>64828.30186</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>30783.55115</v>
+        <v>46751.92439</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>54460.90059999999</v>
+        <v>49861.07467</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>67440.37274999999</v>
+        <v>72212.07529000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>564158.9653299999</v>
+        <v>560835.5142699999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>109504.26882</v>
+        <v>111055.71022</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>508583.1271299999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>396136.38634</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>128353.781</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>422324.81243</v>
+        <v>127437.77073</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>436270.40503</v>
+        <v>145696.26629</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>674626.7781799999</v>
+        <v>379611.93864</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>761467.7326100001</v>
+        <v>443554.25986</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>924731.27642</v>
+        <v>607601.77688</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>273898.47546</v>
+        <v>250437.86451</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>515777.4215999999</v>
+        <v>480383.4469</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>729240.19521</v>
+        <v>413075.56538</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>357200.54507</v>
+        <v>321310.11356</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>969051.89061</v>
+        <v>677880.5326</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>681280.34228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>371850.81699</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>577384.954</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2512.31928</v>
+        <v>2511.61408</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>2592.05531</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>8312.844360000001</v>
+        <v>7850.531269999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>20922.35194</v>
+        <v>20316.94788</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13722.7125</v>
+        <v>11392.3719</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1178.50705</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>16204.23409</v>
+        <v>15735.66554</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>31861.14175</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1557.188</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>782.7670000000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1820,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>10.82971</v>
+        <v>10.13719</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>5963.54628</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>473.66557</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>42188.96541</v>
+        <v>41306.00391000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>37231.39636</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>58345.78195</v>
+        <v>56863.84594</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>105751.1856</v>
+        <v>101538.07361</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>86593.60247</v>
+        <v>82744.15334</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>86628.32756000001</v>
+        <v>83409.88485</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>78264.97409</v>
+        <v>75041.50345</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>37745.59891</v>
+        <v>36133.29291</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>72031.00395</v>
+        <v>68455.92726000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>46915.73053</v>
+        <v>46749.70596</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>64690.83602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>59272.26919</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>74616.462</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1904,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5944.171240000001</v>
+        <v>5223.83226</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0.2626</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>293478.41195</v>
+        <v>3076.48585</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>292242.93931</v>
+        <v>1851.24398</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>298881.56425</v>
+        <v>8334.258250000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>325193.99798</v>
+        <v>15369.13106</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>319136.94729</v>
+        <v>9228.26672</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>24542.4331</v>
+        <v>5140.68699</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>23668.09338</v>
+        <v>4232.855769999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>348560.86324</v>
+        <v>37866.86313000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>31380.75902</v>
+        <v>10709.70026</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>293205.25713</v>
+        <v>2813.5618</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>291733.89609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1207.72999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>420.683</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>28.48766</v>
+        <v>28.40169</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>10.98995</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>143.37602</v>
+        <v>142.2754</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>27745.895</v>
+        <v>27698.26602</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6318.09981</v>
+        <v>6318.034729999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>43.24448</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>702.97658</v>
+        <v>7.101</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>309.1925</v>
+        <v>91.32744</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3671.83019</v>
+        <v>143.65699</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>7537.608990000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>0.68238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>72130.44653999999</v>
+        <v>68959.76140999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>92093.59264</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>287500.57251</v>
+        <v>285217.89784</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>260801.97083</v>
+        <v>259127.17689</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>474902.92405</v>
+        <v>474352.4209</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>130401.80355</v>
+        <v>129955.15051</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>363602.16789</v>
+        <v>354090.63928</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>285991.47516</v>
+        <v>283988.66182</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>161877.42842</v>
+        <v>159478.70819</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>563680.2374300001</v>
+        <v>563283.37121</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>255501.58509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>246756.47589</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>437935.802</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>401.24538</v>
@@ -2063,22 +2109,27 @@
         <v>3250.80418</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1206.34121</v>
+        <v>254.65454</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>985.5541899999999</v>
+        <v>290.40465</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>264.39749</v>
+        <v>47.6256</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3971.94623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>11584.93621</v>
+        <v>11154.25841</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>11662.21539</v>
+        <v>11479.77198</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>20757.64178</v>
+        <v>20518.13263</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19114.81151</v>
+        <v>17567.14465</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>18175.12337</v>
+        <v>17685.35488</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>23027.81201</v>
+        <v>22634.04292</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23666.33458</v>
+        <v>22801.04542</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>23565.31984</v>
+        <v>22879.36119</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>67029.08482999999</v>
+        <v>62006.83174</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>56472.92493</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>63824.20847</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>63057.15392</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>63629.24</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>93810.91023000001</v>
+        <v>91207.2212</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>136902.89882</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>317001.38074</v>
+        <v>311744.9497299999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>278069.76189</v>
+        <v>276436.7247</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>431757.78813</v>
+        <v>428310.50485</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>158267.64321</v>
+        <v>95185.99622</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>158235.66178</v>
+        <v>136260.8714</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>103911.25845</v>
+        <v>94955.47792</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>159168.84842</v>
+        <v>149548.09705</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>361450.03074</v>
+        <v>350650.3512799999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>188659.40932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>177810.25357</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>294234.041</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3874.20174</v>
@@ -2204,25 +2270,25 @@
         <v>4435.951690000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6064.065779999999</v>
+        <v>5679.434719999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5662.1264</v>
+        <v>5200.27078</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>9995.97049</v>
+        <v>7827.481049999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9850.57</v>
+        <v>9219.96974</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10545.40697</v>
+        <v>9627.69001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8234.768820000001</v>
+        <v>8206.76143</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5649.946889999999</v>
+        <v>5622.92268</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>5233.68458</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>1275.95979</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>39377.41142</v>
+        <v>38501.34415</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>35927.38342</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>16801.51872</v>
+        <v>16732.67775</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>35449.62551</v>
+        <v>35320.46172</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>15726.47058</v>
+        <v>15576.28613</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>23368.13621</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8451.49949</v>
+        <v>8321.305349999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>13586.66399</v>
+        <v>8841.24027</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>18445.08099</v>
+        <v>15549.62687</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>12234.07902</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>12821.32095</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7775.00397</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5473.353</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2288,70 +2364,80 @@
         <v>772.90248</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>29452.93588</v>
+        <v>29452.93465</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>449.98357</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>269.2449</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>1658.20167</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10249.40766</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>43281.14335</v>
+        <v>41775.83287999999</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>90384.78569</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>284983.34591</v>
+        <v>280180.38745</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>225493.26084</v>
+        <v>224731.93654</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>365896.16923</v>
+        <v>365088.09897</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>64508.30325</v>
+        <v>51554.34221</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>117704.82426</v>
+        <v>97235.23714</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>74101.82779000001</v>
+        <v>71495.44438</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>102024.60859</v>
+        <v>98136.35840000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>308083.61489</v>
+        <v>307750.11498</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>122414.78578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>120196.93822</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>257025.665</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>310.00966</v>
@@ -2375,22 +2461,27 @@
         <v>3332.83386</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1060.35636</v>
+        <v>228.8897</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>960.46345</v>
+        <v>104.93696</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>216.77189</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3584.99121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,38 +2516,43 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>6968.144060000001</v>
+        <v>6745.832770000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>5651.07004</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7399.41045</v>
+        <v>7399.409930000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6130.433639999999</v>
+        <v>5849.74016</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7859.17867</v>
+        <v>7538.64077</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>59454.07628</v>
+        <v>9956.990589999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17751.11363</v>
+        <v>17743.80504</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6658.39659</v>
+        <v>6183.14214</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>30430.54683</v>
+        <v>30134.25214</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>25432.4727</v>
@@ -2464,89 +2560,104 @@
       <c r="M43" s="48" t="n">
         <v>48562.35159000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>31735.013</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>206227.57628</v>
+        <v>200361.8354</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>194847.97714</v>
+        <v>194836.04992</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>518743.0619500001</v>
+        <v>517238.56094</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>189286.4744</v>
+        <v>187250.95111</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>446264.43869</v>
+        <v>440941.97149</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>258002.69707</v>
+        <v>245968.19355</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>477498.8737</v>
+        <v>449751.3435</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>317207.28969</v>
+        <v>294624.79632</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>238627.9735</v>
+        <v>201707.24074</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>197750.41258</v>
+        <v>196990.30209</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>129735.60319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>128077.32212</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>80580.811</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>188135.64903</v>
+        <v>182269.90815</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>182059.14196</v>
+        <v>182047.21474</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>465474.18047</v>
+        <v>465437.88792</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>187706.83958</v>
+        <v>187250.95111</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>446264.43869</v>
+        <v>440941.97149</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>120376.09455</v>
+        <v>108341.59103</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>142072.93273</v>
+        <v>114325.40253</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>142596.17904</v>
+        <v>120013.68567</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>236874.87196</v>
+        <v>201707.24074</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>197750.41258</v>
+        <v>196990.30209</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>129735.60319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>128077.32212</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>80580.811</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>18091.92725</v>
@@ -2555,10 +2666,10 @@
         <v>12788.83518</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>53268.88148</v>
+        <v>51800.67302</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>1579.63482</v>
+        <v>0</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>0</v>
@@ -2573,7 +2684,7 @@
         <v>174611.11065</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1753.10154</v>
+        <v>0</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>0</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>143811.60398</v>
+        <v>-142661.67065</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>266960.25867</v>
+        <v>-23511.88443</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-97329.91690000001</v>
+        <v>-380874.53039</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>308380.56244</v>
+        <v>-15134.91162</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>117573.67748</v>
+        <v>-196822.3976</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-111588.31367</v>
+        <v>-43964.40087</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-65496.21328</v>
+        <v>-55767.69332999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>375562.01982</v>
+        <v>95707.36643000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>523562.68848</v>
+        <v>530890.29004</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>519355.71611</v>
+        <v>241295.58945</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>871468.4569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>462099.62764</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>330923.883</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17421.31111</v>
+        <v>17305.27099</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>9748.027109999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>71338.16597999999</v>
+        <v>66901.24397</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>211149.88675</v>
+        <v>198064.73179</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13673.53345</v>
+        <v>12752.76848</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>289316.31947</v>
+        <v>283597.45748</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>833540.2554499999</v>
+        <v>823620.36581</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16242.42526</v>
+        <v>14082.39078</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>114596.08924</v>
+        <v>68029.66510000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>335278.10027</v>
+        <v>334112.0548</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7620.127769999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6206.94167</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>26690.821</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>13674.03082</v>
@@ -2675,7 +2801,7 @@
         <v>270.74337</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1524.58754</v>
+        <v>1524.22921</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>668.52774</v>
@@ -2690,7 +2816,7 @@
         <v>51.7319</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>163.05148</v>
+        <v>62.93585</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>5.95653</v>
@@ -2698,92 +2824,107 @@
       <c r="M49" s="48" t="n">
         <v>0.90916</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3747.28029</v>
+        <v>3631.24017</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>9695.395189999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>71067.42260999999</v>
+        <v>66630.5006</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>209625.29921</v>
+        <v>196540.50258</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13005.00571</v>
+        <v>12084.24074</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>289164.13388</v>
+        <v>283445.27189</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>830294.08526</v>
+        <v>820374.19562</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16190.69336</v>
+        <v>14030.65888</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>114433.03776</v>
+        <v>67966.72925</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>335272.14374</v>
+        <v>334106.09827</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7619.218609999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6206.03251</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>26690.821</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>15492.93813</v>
+        <v>14496.39612</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>25754.53739</v>
+        <v>25754.47949</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>159725.51051</v>
+        <v>154516.33793</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>32112.65031</v>
+        <v>30943.73255</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>75165.32414</v>
+        <v>71629.88102</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>180982.38136</v>
+        <v>177710.46572</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>141865.807</v>
+        <v>139233.8784</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>31573.4462</v>
+        <v>27066.82379</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>57510.42453</v>
+        <v>22059.16253</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>112014.7602</v>
+        <v>111717.25337</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>70741.43028999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>70540.91872</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>60952.2</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>401.69808</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>1655.52178</v>
@@ -2792,13 +2933,13 @@
         <v>453.57825</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>443.80011</v>
+        <v>392.95011</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1503.16973</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>715.2833900000001</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>446.49644</v>
@@ -2807,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1610.16989</v>
+        <v>1598.43084</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1359.03426</v>
@@ -2828,190 +2974,213 @@
         <v>10960.82136</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1367.06666</v>
+        <v>1366.53566</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>885.2896</v>
+        <v>884.96599</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1405.05497</v>
+        <v>1391.64517</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1390.65182</v>
+        <v>1365.42751</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3966.6892</v>
+        <v>1978.00954</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2245.08135</v>
+        <v>2162.07854</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>577.94574</v>
+        <v>566.8594899999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>189.26047</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>418.1638400000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>411.33007</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>184.997</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13732.20579</v>
+        <v>13137.36186</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>13138.19425</v>
+        <v>13138.13635</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>157904.8656</v>
+        <v>152696.22402</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>30783.5606</v>
+        <v>29665.81645</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>72257.09943999999</v>
+        <v>70238.23585000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>178876.44615</v>
+        <v>176345.03821</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>137452.62136</v>
+        <v>136809.37242</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>29328.36485</v>
+        <v>24904.74525</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>55322.3089</v>
+        <v>19893.8722</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>111825.49973</v>
+        <v>111527.9929</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>70323.26645000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>70129.58864999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>60767.203</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>145739.97696</v>
+        <v>-139852.79578</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>250953.74839</v>
+        <v>-39518.33681</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-185717.26143</v>
+        <v>-468489.6243499999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>487417.79888</v>
+        <v>151986.08762</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>56081.88679</v>
+        <v>-255699.51014</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-3254.37556</v>
+        <v>61922.59089</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>626178.2351700001</v>
+        <v>628618.79408</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>360230.99888</v>
+        <v>82722.93342</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>580648.3531900001</v>
+        <v>576860.79261</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>742619.0561800001</v>
+        <v>463690.39088</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>808347.15438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>397765.65059</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>296662.504</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>20869.66295</v>
+        <v>19598.28303</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>22258.17778</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>26729.88706</v>
+        <v>25773.85339</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>45403.87273</v>
+        <v>41967.21529</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>32526.71978</v>
+        <v>27398.4383</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>23658.62606</v>
+        <v>22370.72037</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41410.17669</v>
+        <v>35344.27621</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>38516.10459</v>
+        <v>37559.77925</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>129262.64339</v>
+        <v>124323.94473</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>104736.00267</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>156308.85562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>130180.39537</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>97397.197</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>124870.31401</v>
+        <v>-159451.07881</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>228695.57061</v>
+        <v>-61776.51459000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-212447.14849</v>
+        <v>-494263.4777399999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>442013.92615</v>
+        <v>110018.87233</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>23555.16701</v>
+        <v>-283097.94844</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-26913.00162</v>
+        <v>39551.87052</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>584768.05848</v>
+        <v>593274.51787</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>321714.89429</v>
+        <v>45163.15417</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>451385.7098</v>
+        <v>452536.84788</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>637883.05351</v>
+        <v>358954.38821</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>652038.29876</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>267585.25522</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>199265.307</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>